--- a/三下/演算法/A6409001_邱郁涵_HW04.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW04.xlsx
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/三下/演算法/A6409001_邱郁涵_HW04.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW04.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE36D98-2466-44BD-85A9-14015EBC249A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,13 +61,61 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The list of keys: 30, 20, 56, 75, 31, 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The hash fuction: h(K) = K mod 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The hash addresses:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h(K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The open hash table:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The largest number of key comparison is a successful search in this table is 3 (in searching for K = 31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume that a search for each of the six keys is equally likely, is </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*2 + 1/6*3    =  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -159,6 +214,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -188,7 +245,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -208,6 +265,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495993</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="圖片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2260A46-4E07-475E-94FB-3521336FCD1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="12715875"/>
+          <a:ext cx="4963218" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -221,13 +328,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2" descr="畫面剪輯"/>
+        <xdr:cNvPr id="3" name="圖片 2" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -265,13 +378,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4" descr="畫面剪輯"/>
+        <xdr:cNvPr id="5" name="圖片 4" descr="畫面剪輯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -286,6 +405,106 @@
         <a:xfrm>
           <a:off x="609600" y="5200650"/>
           <a:ext cx="4591691" cy="2495898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67280</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>105097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="圖片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35128743-0062-4DFD-A646-FE917C1111FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12001500"/>
+          <a:ext cx="4334480" cy="2305372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457859</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>143370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C586F7-1455-49B0-B7AB-6B8700293731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="16202025"/>
+          <a:ext cx="4725059" cy="3543795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,11 +778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A12:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,196 +874,196 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>4</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="8">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="8">
         <v>8</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="8">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="8">
         <v>8</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>0</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="8">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="8">
         <v>8</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="8">
         <v>7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="8">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>0</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="8">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="8">
         <v>8</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="8">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="8">
         <v>7</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="8">
         <v>5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <v>7</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="8">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>7</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
@@ -858,6 +1077,179 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1">
+        <v>75</v>
+      </c>
+      <c r="H45" s="1">
+        <v>31</v>
+      </c>
+      <c r="I45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="8">
+        <v>8</v>
+      </c>
+      <c r="E46" s="8">
+        <v>9</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>9</v>
+      </c>
+      <c r="H46" s="8">
+        <v>9</v>
+      </c>
+      <c r="I46" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>7</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D52" s="9">
+        <v>56</v>
+      </c>
+      <c r="K52" s="9">
+        <v>30</v>
+      </c>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K53" s="9">
+        <v>19</v>
+      </c>
+      <c r="L53" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="9">
+        <f>1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*2 + 1/6*3</f>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/三下/演算法/A6409001_邱郁涵_HW04.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW04.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE36D98-2466-44BD-85A9-14015EBC249A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD349B2-10A8-4AFC-879A-B8ABB498C92E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,42 @@
   </si>
   <si>
     <t xml:space="preserve">1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*2 + 1/6*3    =  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The list of keys: 30, 20, 56, 75, 31, 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The hash function: h(K) = K mod 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The hash addresses: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The largest number of key comparisons in a successful search is 6(when searching for K = 19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The average number of key comparisons in a successful search in this table, assuming that a search for each of the six keys is equally likely is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*3 + 1/6*6  = </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,56 +301,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495993</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="圖片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2260A46-4E07-475E-94FB-3521336FCD1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="12715875"/>
-          <a:ext cx="4963218" cy="2905530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -340,7 +326,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -390,7 +376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -440,7 +426,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -455,56 +441,6 @@
         <a:xfrm>
           <a:off x="609600" y="12001500"/>
           <a:ext cx="4334480" cy="2305372"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457859</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>143370</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="圖片 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C586F7-1455-49B0-B7AB-6B8700293731}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="16202025"/>
-          <a:ext cx="4725059" cy="3543795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A12:O59"/>
+  <dimension ref="A12:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>0</v>
       </c>
@@ -1188,8 +1124,11 @@
       <c r="L50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1200,8 +1139,9 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D52" s="9">
         <v>56</v>
       </c>
@@ -1212,7 +1152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K53" s="9">
         <v>19</v>
       </c>
@@ -1220,20 +1160,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L54" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1241,13 +1181,257 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="9">
         <f>1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*2 + 1/6*3</f>
         <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1">
+        <v>30</v>
+      </c>
+      <c r="E78" s="1">
+        <v>20</v>
+      </c>
+      <c r="F78" s="1">
+        <v>56</v>
+      </c>
+      <c r="G78" s="1">
+        <v>75</v>
+      </c>
+      <c r="H78" s="1">
+        <v>31</v>
+      </c>
+      <c r="I78" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="8">
+        <v>8</v>
+      </c>
+      <c r="E79" s="8">
+        <v>9</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1</v>
+      </c>
+      <c r="G79" s="8">
+        <v>9</v>
+      </c>
+      <c r="H79" s="8">
+        <v>9</v>
+      </c>
+      <c r="I79" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8">
+        <v>30</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8">
+        <v>30</v>
+      </c>
+      <c r="K84" s="8">
+        <v>20</v>
+      </c>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8">
+        <v>56</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8">
+        <v>30</v>
+      </c>
+      <c r="K85" s="8">
+        <v>20</v>
+      </c>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8">
+        <v>56</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8">
+        <v>30</v>
+      </c>
+      <c r="K86" s="8">
+        <v>20</v>
+      </c>
+      <c r="L86" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="8">
+        <v>31</v>
+      </c>
+      <c r="C87" s="8">
+        <v>56</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8">
+        <v>30</v>
+      </c>
+      <c r="K87" s="8">
+        <v>20</v>
+      </c>
+      <c r="L87" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="8">
+        <v>31</v>
+      </c>
+      <c r="C88" s="8">
+        <v>56</v>
+      </c>
+      <c r="D88" s="8">
+        <v>19</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8">
+        <v>30</v>
+      </c>
+      <c r="K88" s="8">
+        <v>20</v>
+      </c>
+      <c r="L88" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="9">
+        <f>1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*3 + 1/6*6</f>
+        <v>2.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/三下/演算法/A6409001_邱郁涵_HW04.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW04.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD349B2-10A8-4AFC-879A-B8ABB498C92E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C4771-F797-43D6-A37C-08E57248ECD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,126 @@
   </si>
   <si>
     <t xml:space="preserve">1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*3 + 1/6*6  = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unordered array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordered array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate chaining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear probing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +315,27 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,11 +368,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,6 +419,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -441,6 +620,106 @@
         <a:xfrm>
           <a:off x="609600" y="12001500"/>
           <a:ext cx="4334480" cy="2305372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>86497</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>162252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B152AE8-85E7-48E9-91BF-2C81C3EEAC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="20621625"/>
+          <a:ext cx="5534797" cy="2343477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>553201</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>29253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB723E2-5571-46AE-B827-388C4F4A209F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="23574375"/>
+          <a:ext cx="5382376" cy="4858428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A12:O94"/>
+  <dimension ref="A12:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1713,127 @@
         <v>2.333333333333333</v>
       </c>
     </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" s="12"/>
+      <c r="K99" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="12"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100" s="12"/>
+      <c r="K100" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" s="12"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J101" s="12"/>
+      <c r="K101" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="G99:H99"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/三下/演算法/A6409001_邱郁涵_HW04.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW04.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C4771-F797-43D6-A37C-08E57248ECD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD6C5D-A71B-42AD-A18C-336E83B3CCF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,30 @@
       </rPr>
       <t>n)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6, 10, 15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15, 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27, 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15, 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44, 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,14 +446,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,23 +663,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>86497</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>162252</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6879</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>130727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3">
+        <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B152AE8-85E7-48E9-91BF-2C81C3EEAC12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73AB84F-F126-456E-A3B1-D9B8A94A348A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -668,8 +701,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7962900" y="20621625"/>
-          <a:ext cx="5534797" cy="2343477"/>
+          <a:off x="611038" y="20559623"/>
+          <a:ext cx="5506218" cy="3096057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,54 +711,1004 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26958</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>26957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>553201</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>29253</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>296533</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>8985</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB723E2-5571-46AE-B827-388C4F4A209F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42948AAA-F5EC-433D-B622-C116CDA3F73A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6753225" y="23574375"/>
-          <a:ext cx="5382376" cy="4858428"/>
+        <a:xfrm flipH="1">
+          <a:off x="1860071" y="24144976"/>
+          <a:ext cx="269575" cy="179717"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>305519</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602052</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>188703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線接點 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F78DBCC-CEB4-45A8-9775-154E2AAF7918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2138632" y="24118019"/>
+          <a:ext cx="296533" cy="188703"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368420</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>17972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53915</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>26957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C583225-2594-4A7E-8521-08186A6195E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4034646" y="24135991"/>
+          <a:ext cx="296533" cy="206674"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>574735</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>26598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233273</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線接點 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8CF712-E9DD-4ECB-B799-27C304B6DDA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3629924" y="24144617"/>
+          <a:ext cx="269575" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>305519</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>305519</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>188703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D9A9BB-0F67-47BF-82C9-E42A3C1EDFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971745" y="24127005"/>
+          <a:ext cx="0" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8268</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>26239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277843</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>8267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線接點 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4D0B38-BCDD-48B3-B170-2D92C5652EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5507608" y="24144258"/>
+          <a:ext cx="269575" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350088</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>26598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350088</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線接點 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F07D32F-9746-40A3-A1EF-72DD5BA3B83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849428" y="24144617"/>
+          <a:ext cx="0" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395018</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80514</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>17612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線接點 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65642438-B5FE-4A72-A20F-B80E385FE8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894358" y="24126646"/>
+          <a:ext cx="296533" cy="206674"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53556</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323131</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>188343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線接點 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A033B6D9-8215-4D39-9E31-16A0ABEC4C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1886669" y="25115088"/>
+          <a:ext cx="269575" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314145</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>610678</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線接點 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241320F3-11DB-4F0A-BD60-035D561C4344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147258" y="25124075"/>
+          <a:ext cx="296533" cy="188703"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143055</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>26238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412630</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>8267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線接點 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AD20E4-06E4-4B43-AFA8-63EDF6FBC91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1365130" y="25528078"/>
+          <a:ext cx="269575" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412630</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>26239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521180</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線接點 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07895F72-305E-4135-A543-C65BD7442844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634705" y="25528079"/>
+          <a:ext cx="108550" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134788</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214941</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>170731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線接點 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851700A4-FF3A-464F-9771-6F4CD0E80786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2578939" y="25519093"/>
+          <a:ext cx="80153" cy="153478"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206674</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44929</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>188702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線接點 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261C493D-C6E4-40DA-B910-B2E762E7CE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2650825" y="25501840"/>
+          <a:ext cx="449293" cy="188702"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53556</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>8626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323131</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>188343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C271ABF7-42D3-418A-BA2E-77C76A3684BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1886669" y="25115088"/>
+          <a:ext cx="269575" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314145</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610678</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>8627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AB118C-DBD9-4A0C-A83A-A731462ACF9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147258" y="25124075"/>
+          <a:ext cx="296533" cy="188703"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143055</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>26238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412630</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>8267</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2080BF5-A3F5-4DCB-AC28-59DB58BC99CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1365130" y="25528078"/>
+          <a:ext cx="269575" cy="179717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412630</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>26239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521180</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線接點 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A3C417-C9AA-452C-BEF6-1513A974481C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634705" y="25528079"/>
+          <a:ext cx="108550" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134788</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>17253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214941</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>170731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AE1D0B-550B-41DC-A0A4-00EADA2620D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2578939" y="25519093"/>
+          <a:ext cx="80153" cy="153478"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206674</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44929</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>188702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線接點 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F6495A-9B48-42CB-8E68-40E9C2E81DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2650825" y="25501840"/>
+          <a:ext cx="449293" cy="188702"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -994,15 +1977,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A12:O101"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -1030,13 +2018,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -1088,7 +2076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>2</v>
       </c>
@@ -1112,7 +2100,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -1136,7 +2124,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>0</v>
       </c>
@@ -1160,7 +2148,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>0</v>
       </c>
@@ -1184,7 +2172,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>0</v>
       </c>
@@ -1208,7 +2196,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>0</v>
       </c>
@@ -1232,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>0</v>
       </c>
@@ -1256,7 +2244,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>0</v>
       </c>
@@ -1280,7 +2268,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1292,123 +2280,127 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>30</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>20</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>56</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>75</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>31</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="8">
+      <c r="E46" s="8">
         <v>8</v>
       </c>
-      <c r="E46" s="8">
+      <c r="F46" s="8">
         <v>9</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>1</v>
-      </c>
-      <c r="G46" s="8">
-        <v>9</v>
       </c>
       <c r="H46" s="8">
         <v>9</v>
       </c>
       <c r="I46" s="8">
+        <v>9</v>
+      </c>
+      <c r="J46" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>3</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>4</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>6</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>7</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>8</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>9</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1419,157 +2411,162 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D52" s="9">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E52" s="9">
         <v>56</v>
       </c>
-      <c r="K52" s="9">
+      <c r="L52" s="9">
         <v>30</v>
       </c>
-      <c r="L52" s="9">
+      <c r="M52" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K53" s="9">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L53" s="9">
         <v>19</v>
       </c>
-      <c r="L53" s="9">
+      <c r="M53" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L54" s="9">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M54" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>18</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="9">
+      <c r="H59" s="9">
         <f>1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*2 + 1/6*3</f>
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>30</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>20</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>56</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>75</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>31</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J78" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="8">
+      <c r="E79" s="8">
         <v>8</v>
       </c>
-      <c r="E79" s="8">
+      <c r="F79" s="8">
         <v>9</v>
       </c>
-      <c r="F79" s="8">
+      <c r="G79" s="8">
         <v>1</v>
-      </c>
-      <c r="G79" s="8">
-        <v>9</v>
       </c>
       <c r="H79" s="8">
         <v>9</v>
       </c>
       <c r="I79" s="8">
+        <v>9</v>
+      </c>
+      <c r="J79" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>24</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>0</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>2</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>3</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>4</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>5</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>6</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>7</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>8</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>9</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -1577,14 +2574,14 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="8">
+      <c r="J83" s="8"/>
+      <c r="K83" s="8">
         <v>30</v>
       </c>
-      <c r="K83" s="8"/>
       <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -1592,134 +2589,140 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="8">
+      <c r="J84" s="8"/>
+      <c r="K84" s="8">
         <v>30</v>
       </c>
-      <c r="K84" s="8">
+      <c r="L84" s="8">
         <v>20</v>
       </c>
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8">
+      <c r="M84" s="8"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8">
         <v>56</v>
       </c>
-      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="8">
+      <c r="J85" s="8"/>
+      <c r="K85" s="8">
         <v>30</v>
       </c>
-      <c r="K85" s="8">
+      <c r="L85" s="8">
         <v>20</v>
       </c>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8">
+      <c r="M85" s="8"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8">
         <v>56</v>
       </c>
-      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="8">
+      <c r="J86" s="8"/>
+      <c r="K86" s="8">
         <v>30</v>
       </c>
-      <c r="K86" s="8">
+      <c r="L86" s="8">
         <v>20</v>
       </c>
-      <c r="L86" s="8">
+      <c r="M86" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="8">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="8">
         <v>31</v>
       </c>
-      <c r="C87" s="8">
+      <c r="D87" s="8">
         <v>56</v>
       </c>
-      <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="8">
+      <c r="J87" s="8"/>
+      <c r="K87" s="8">
         <v>30</v>
       </c>
-      <c r="K87" s="8">
+      <c r="L87" s="8">
         <v>20</v>
       </c>
-      <c r="L87" s="8">
+      <c r="M87" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C88" s="8">
         <v>31</v>
       </c>
-      <c r="C88" s="8">
+      <c r="D88" s="8">
         <v>56</v>
       </c>
-      <c r="D88" s="8">
+      <c r="E88" s="8">
         <v>19</v>
       </c>
-      <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="8">
+      <c r="J88" s="8"/>
+      <c r="K88" s="8">
         <v>30</v>
       </c>
-      <c r="K88" s="8">
+      <c r="L88" s="8">
         <v>20</v>
       </c>
-      <c r="L88" s="8">
+      <c r="M88" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>27</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>29</v>
       </c>
-      <c r="G94" s="9">
+      <c r="H94" s="9">
         <f>1/6*1 + 1/6*1 + 1/6*1 + 1/6*2 + 1/6*3 + 1/6*6</f>
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D98" s="12"/>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F98" s="12"/>
@@ -1736,83 +2739,186 @@
       </c>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D99" s="12"/>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="13" t="s">
+      <c r="G99" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H99" s="12"/>
-      <c r="I99" s="13" t="s">
+      <c r="I99" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J99" s="12"/>
-      <c r="K99" s="13" t="s">
+      <c r="K99" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L99" s="12"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="12"/>
-      <c r="E100" s="13" t="s">
+      <c r="E100" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H100" s="12"/>
-      <c r="I100" s="13" t="s">
+      <c r="I100" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J100" s="12"/>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L100" s="12"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D101" s="12"/>
-      <c r="E101" s="13" t="s">
+      <c r="E101" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H101" s="12"/>
-      <c r="I101" s="13" t="s">
+      <c r="I101" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J101" s="12"/>
-      <c r="K101" s="13" t="s">
+      <c r="K101" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L101" s="12"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="14">
+        <v>10</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124" s="14">
+        <v>15</v>
+      </c>
+      <c r="H124" s="15">
+        <v>31</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" s="14">
+        <v>15</v>
+      </c>
+      <c r="K124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D127" s="14">
+        <v>20</v>
+      </c>
+      <c r="J127" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="E129" s="15">
+        <v>31</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="K129" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="E131" s="15">
+        <v>27</v>
+      </c>
+      <c r="F131" s="15">
+        <v>50</v>
+      </c>
+      <c r="H131">
+        <v>6</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131" s="15">
+        <v>27</v>
+      </c>
+      <c r="L131" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
     <mergeCell ref="K98:L98"/>
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="K100:L100"/>
@@ -1823,20 +2929,10 @@
     <mergeCell ref="I99:J99"/>
     <mergeCell ref="I100:J100"/>
     <mergeCell ref="I101:J101"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="G99:H99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/三下/演算法/A6409001_邱郁涵_HW04.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW04.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD6C5D-A71B-42AD-A18C-336E83B3CCF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9072DE9D-E58E-45EB-A7B6-B5D464CB826F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,12 +291,35 @@
     <t>44, 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Θ(nk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(承受重量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(物品數)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +383,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -418,11 +447,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -443,8 +589,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,13 +607,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1709,6 +1920,1476 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26958</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>8985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>288285</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>144649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65EF3D6-931D-4292-9295-33663B4431B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="637996" y="26499268"/>
+          <a:ext cx="2705478" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276321</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>4659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="圖片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81818641-3767-4958-AAF9-53A3DE93B86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611038" y="29850991"/>
+          <a:ext cx="4553585" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>65389</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>37896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC686BD1-E2AF-47E7-9FA2-D9301C0946D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611038" y="31827877"/>
+          <a:ext cx="4953691" cy="2410161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>287547</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F53D0DB-6606-4913-B169-E87E366DB292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="898461" y="34414810"/>
+          <a:ext cx="14625" cy="968365"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>479534</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>151475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118241</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線接點 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4535E93-403A-46A2-BC5F-BC4757E0D43C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="479534" y="34835613"/>
+          <a:ext cx="860535" cy="12749"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>486103</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>165713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139262</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>178676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線接點 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011E3D85-588B-41F6-B308-70453428C32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1707931" y="35046920"/>
+          <a:ext cx="874986" cy="12963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361120</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>106417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>375745</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>89437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線接點 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569A3E29-054D-4EA6-99F6-1E627495C9CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2193861" y="34396417"/>
+          <a:ext cx="14625" cy="968365"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>433379</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>71273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448004</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>54293</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6147CBB2-4307-42EA-8342-E71CBD6F4483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3481379" y="34875623"/>
+          <a:ext cx="14625" cy="983145"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467711</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>160458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120869</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>173421</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB11A99-757D-4A70-AC9F-66E8CA244576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2911366" y="35238734"/>
+          <a:ext cx="874986" cy="12963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457774</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>124289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="圖片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D11667-B879-4235-95C6-5A51A2C08DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36404550"/>
+          <a:ext cx="4115374" cy="3324689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="箭號: 向右 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0A9D5B-6BBA-4138-B180-3A13C642AAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="40433625"/>
+          <a:ext cx="295275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="箭號: 向右 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ECE0FD-201A-4C9F-9FE0-63F562057A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="40366950"/>
+          <a:ext cx="295275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="箭號: 向右 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A0814B-DE6F-443E-BFEE-49403CD8BF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="40357425"/>
+          <a:ext cx="295275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="箭號: 向右 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3E79CB-A91A-4366-9A1D-7DC5CFD45CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="41729025"/>
+          <a:ext cx="295275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="箭號: 向右 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D94B54-047A-43CD-BB73-778375C451CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="41767125"/>
+          <a:ext cx="295275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形: 圓角 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9439169E-C175-45DF-A9CF-9DD5673C50FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="39814500"/>
+          <a:ext cx="323850" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形: 圓角 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0850AF3B-93A6-4E94-9230-560F43EBEB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="39881175"/>
+          <a:ext cx="323850" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形: 圓角 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A962B28-2D62-4388-B85A-B2ABB7C22FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="39776400"/>
+          <a:ext cx="323850" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形: 圓角 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC98CD45-37DE-46BA-ACB3-E1745EF3C7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="41233725"/>
+          <a:ext cx="323850" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形: 圓角 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363D37A9-D0B7-4F77-8A91-19F6A053EC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="41243250"/>
+          <a:ext cx="323850" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形: 圓角 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A3902E-56ED-4089-9C7D-7430D95654C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="40233601"/>
+          <a:ext cx="3276600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形: 圓角 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8019AD43-9430-4F8F-ABE9-E1581C67DF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="40414576"/>
+          <a:ext cx="3276600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形: 圓角 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6C6567-931D-4735-A92C-96524978D5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="42014776"/>
+          <a:ext cx="3276600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形: 圓角 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362ECCFC-F0C2-4538-A103-78434FDB8BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="42214801"/>
+          <a:ext cx="3276600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形: 圓角 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A0B2EB-144D-40E6-BB86-9AC8CF441199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="40014525"/>
+          <a:ext cx="3276600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429365</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>124317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="圖片 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E828E7-B2FA-4D0D-8346-96A8E6520269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="43005375"/>
+          <a:ext cx="5306165" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1977,10 +3658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I237" sqref="C237:I242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2718,101 +4399,101 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="13" t="s">
+      <c r="D98" s="14"/>
+      <c r="E98" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F98" s="12"/>
-      <c r="G98" s="10" t="s">
+      <c r="F98" s="14"/>
+      <c r="G98" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10" t="s">
+      <c r="H98" s="16"/>
+      <c r="I98" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10" t="s">
+      <c r="J98" s="16"/>
+      <c r="K98" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L98" s="10"/>
+      <c r="L98" s="16"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="14"/>
+      <c r="E99" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="11" t="s">
+      <c r="F99" s="14"/>
+      <c r="G99" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="11" t="s">
+      <c r="H99" s="14"/>
+      <c r="I99" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J99" s="12"/>
-      <c r="K99" s="11" t="s">
+      <c r="J99" s="14"/>
+      <c r="K99" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L99" s="12"/>
+      <c r="L99" s="14"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="11" t="s">
+      <c r="D100" s="14"/>
+      <c r="E100" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="11" t="s">
+      <c r="F100" s="14"/>
+      <c r="G100" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="11" t="s">
+      <c r="H100" s="14"/>
+      <c r="I100" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J100" s="12"/>
-      <c r="K100" s="11" t="s">
+      <c r="J100" s="14"/>
+      <c r="K100" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L100" s="12"/>
+      <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11" t="s">
+      <c r="D101" s="14"/>
+      <c r="E101" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="11" t="s">
+      <c r="F101" s="14"/>
+      <c r="G101" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="11" t="s">
+      <c r="H101" s="14"/>
+      <c r="I101" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J101" s="12"/>
-      <c r="K101" s="11" t="s">
+      <c r="J101" s="14"/>
+      <c r="K101" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L101" s="12"/>
+      <c r="L101" s="14"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
@@ -2823,13 +4504,13 @@
       <c r="B122" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="14">
+      <c r="D122" s="10">
         <v>10</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J122" s="14" t="s">
+      <c r="J122" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2843,16 +4524,16 @@
       <c r="F124">
         <v>6</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="10">
         <v>15</v>
       </c>
-      <c r="H124" s="15">
+      <c r="H124" s="11">
         <v>31</v>
       </c>
       <c r="I124">
         <v>6</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="10">
         <v>15</v>
       </c>
       <c r="K124" t="s">
@@ -2860,65 +4541,938 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D127" s="14">
+      <c r="D127" s="10">
         <v>20</v>
       </c>
-      <c r="J127" s="14">
+      <c r="J127" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>10</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="11">
         <v>31</v>
       </c>
       <c r="I129">
         <v>10</v>
       </c>
-      <c r="K129" s="15">
+      <c r="K129" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131">
         <v>15</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E131" s="11">
         <v>27</v>
       </c>
-      <c r="F131" s="15">
+      <c r="F131" s="11">
         <v>50</v>
       </c>
       <c r="H131">
         <v>6</v>
       </c>
-      <c r="I131" s="16" t="s">
+      <c r="I131" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K131" s="15">
+      <c r="K131" s="11">
         <v>27</v>
       </c>
-      <c r="L131" s="15" t="s">
+      <c r="L131" s="11" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="18"/>
+      <c r="C142" s="17">
+        <v>0</v>
+      </c>
+      <c r="D142" s="17">
+        <v>1</v>
+      </c>
+      <c r="E142" s="17">
+        <v>2</v>
+      </c>
+      <c r="F142" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="19">
+        <v>0</v>
+      </c>
+      <c r="C143" s="9">
+        <v>1</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="19">
+        <v>1</v>
+      </c>
+      <c r="C144" s="9">
+        <v>1</v>
+      </c>
+      <c r="D144" s="9">
+        <v>1</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="19">
+        <v>2</v>
+      </c>
+      <c r="C145" s="9">
+        <v>1</v>
+      </c>
+      <c r="D145" s="9">
+        <f>D144+C144</f>
+        <v>2</v>
+      </c>
+      <c r="E145" s="9">
+        <f>E144+D144</f>
+        <v>1</v>
+      </c>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="19">
+        <v>3</v>
+      </c>
+      <c r="C146" s="9">
+        <v>1</v>
+      </c>
+      <c r="D146" s="9">
+        <f t="shared" ref="D146:D149" si="0">D145+C145</f>
+        <v>3</v>
+      </c>
+      <c r="E146" s="9">
+        <f t="shared" ref="E146:F149" si="1">E145+D145</f>
+        <v>3</v>
+      </c>
+      <c r="F146" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="19">
+        <v>4</v>
+      </c>
+      <c r="C147" s="9">
+        <v>1</v>
+      </c>
+      <c r="D147" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E147" s="9">
+        <f t="shared" ref="E147:E149" si="2">E146+D146</f>
+        <v>6</v>
+      </c>
+      <c r="F147" s="9">
+        <f t="shared" ref="F147:F149" si="3">F146+E146</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="19">
+        <v>5</v>
+      </c>
+      <c r="C148" s="9">
+        <v>1</v>
+      </c>
+      <c r="D148" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E148" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F148" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="19">
+        <v>6</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1</v>
+      </c>
+      <c r="D149" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E149" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F149" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="21" t="str">
+        <f>"0100"</f>
+        <v>0100</v>
+      </c>
+      <c r="D176" s="25" t="str">
+        <f>"0110"</f>
+        <v>0110</v>
+      </c>
+      <c r="F176" s="25" t="str">
+        <f>"0111"</f>
+        <v>0111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="22" t="str">
+        <f>"0010"</f>
+        <v>0010</v>
+      </c>
+      <c r="D177" s="23" t="str">
+        <f>"0010"</f>
+        <v>0010</v>
+      </c>
+      <c r="F177" s="23" t="str">
+        <f>"0011"</f>
+        <v>0011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="23" t="str">
+        <f>"0001"</f>
+        <v>0001</v>
+      </c>
+      <c r="D178" s="23" t="str">
+        <f>"0001"</f>
+        <v>0001</v>
+      </c>
+      <c r="F178" s="23" t="str">
+        <f>"0001"</f>
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="24" t="str">
+        <f>"0000"</f>
+        <v>0000</v>
+      </c>
+      <c r="D179" s="24" t="str">
+        <f>"0000"</f>
+        <v>0000</v>
+      </c>
+      <c r="F179" s="24" t="str">
+        <f>"0000"</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B201" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="27">
+        <v>2</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E201" s="27">
+        <v>1</v>
+      </c>
+      <c r="F201" s="29">
+        <v>8</v>
+      </c>
+      <c r="H201" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I201" s="27">
+        <v>2</v>
+      </c>
+      <c r="J201" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K201" s="27">
+        <v>1</v>
+      </c>
+      <c r="L201" s="29">
+        <v>8</v>
+      </c>
+      <c r="N201" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O201" s="27">
+        <v>2</v>
+      </c>
+      <c r="P201" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q201" s="27">
+        <v>1</v>
+      </c>
+      <c r="R201" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B202" s="30">
+        <v>6</v>
+      </c>
+      <c r="C202" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" s="32">
+        <v>3</v>
+      </c>
+      <c r="E202" s="32">
+        <v>2</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H202" s="30">
+        <v>6</v>
+      </c>
+      <c r="I202" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J202" s="32">
+        <v>3</v>
+      </c>
+      <c r="K202" s="32">
+        <v>2</v>
+      </c>
+      <c r="L202" s="33">
+        <v>14</v>
+      </c>
+      <c r="N202" s="30">
+        <v>6</v>
+      </c>
+      <c r="O202" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P202" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q202" s="32">
+        <v>2</v>
+      </c>
+      <c r="R202" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B203" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D203" s="32">
+        <v>0</v>
+      </c>
+      <c r="E203" s="32">
+        <v>4</v>
+      </c>
+      <c r="F203" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H203" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I203" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J203" s="32">
+        <v>0</v>
+      </c>
+      <c r="K203" s="32">
+        <v>4</v>
+      </c>
+      <c r="L203" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N203" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O203" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P203" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="32">
+        <v>4</v>
+      </c>
+      <c r="R203" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B204" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C204" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D204" s="32">
+        <v>2</v>
+      </c>
+      <c r="E204" s="32">
+        <v>0</v>
+      </c>
+      <c r="F204" s="36">
+        <v>3</v>
+      </c>
+      <c r="H204" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I204" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J204" s="32">
+        <v>2</v>
+      </c>
+      <c r="K204" s="32">
+        <v>0</v>
+      </c>
+      <c r="L204" s="36">
+        <v>3</v>
+      </c>
+      <c r="N204" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O204" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P204" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q204" s="32">
+        <v>0</v>
+      </c>
+      <c r="R204" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B205" s="37">
+        <v>3</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E205" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F205" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H205" s="37">
+        <v>3</v>
+      </c>
+      <c r="I205" s="38">
+        <v>5</v>
+      </c>
+      <c r="J205" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K205" s="38">
+        <v>4</v>
+      </c>
+      <c r="L205" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N205" s="37">
+        <v>3</v>
+      </c>
+      <c r="O205" s="38">
+        <v>5</v>
+      </c>
+      <c r="P205" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q205" s="38">
+        <v>4</v>
+      </c>
+      <c r="R205" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B208" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" s="27">
+        <v>2</v>
+      </c>
+      <c r="D208" s="28">
+        <v>5</v>
+      </c>
+      <c r="E208" s="27">
+        <v>1</v>
+      </c>
+      <c r="F208" s="29">
+        <v>8</v>
+      </c>
+      <c r="H208" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I208" s="27">
+        <v>2</v>
+      </c>
+      <c r="J208" s="28">
+        <v>3</v>
+      </c>
+      <c r="K208" s="27">
+        <v>1</v>
+      </c>
+      <c r="L208" s="29">
+        <v>4</v>
+      </c>
+      <c r="N208" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O208" s="27">
+        <v>2</v>
+      </c>
+      <c r="P208" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q208" s="27">
+        <v>1</v>
+      </c>
+      <c r="R208" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B209" s="30">
+        <v>6</v>
+      </c>
+      <c r="C209" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D209" s="32">
+        <v>3</v>
+      </c>
+      <c r="E209" s="32">
+        <v>2</v>
+      </c>
+      <c r="F209" s="33">
+        <v>14</v>
+      </c>
+      <c r="H209" s="30">
+        <v>6</v>
+      </c>
+      <c r="I209" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J209" s="32">
+        <v>3</v>
+      </c>
+      <c r="K209" s="32">
+        <v>2</v>
+      </c>
+      <c r="L209" s="33">
+        <v>5</v>
+      </c>
+      <c r="N209" s="30">
+        <v>6</v>
+      </c>
+      <c r="O209" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P209" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q209" s="32">
+        <v>2</v>
+      </c>
+      <c r="R209" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B210" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C210" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D210" s="32">
+        <v>0</v>
+      </c>
+      <c r="E210" s="32">
+        <v>4</v>
+      </c>
+      <c r="F210" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H210" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I210" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J210" s="32">
+        <v>0</v>
+      </c>
+      <c r="K210" s="32">
+        <v>4</v>
+      </c>
+      <c r="L210" s="33">
+        <v>7</v>
+      </c>
+      <c r="N210" s="34">
+        <v>10</v>
+      </c>
+      <c r="O210" s="35">
+        <v>12</v>
+      </c>
+      <c r="P210" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="32">
+        <v>4</v>
+      </c>
+      <c r="R210" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B211" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C211" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D211" s="32">
+        <v>2</v>
+      </c>
+      <c r="E211" s="32">
+        <v>0</v>
+      </c>
+      <c r="F211" s="36">
+        <v>3</v>
+      </c>
+      <c r="H211" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I211" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J211" s="32">
+        <v>2</v>
+      </c>
+      <c r="K211" s="32">
+        <v>0</v>
+      </c>
+      <c r="L211" s="36">
+        <v>3</v>
+      </c>
+      <c r="N211" s="34">
+        <v>6</v>
+      </c>
+      <c r="O211" s="35">
+        <v>8</v>
+      </c>
+      <c r="P211" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q211" s="32">
+        <v>0</v>
+      </c>
+      <c r="R211" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B212" s="37">
+        <v>3</v>
+      </c>
+      <c r="C212" s="38">
+        <v>5</v>
+      </c>
+      <c r="D212" s="38">
+        <v>8</v>
+      </c>
+      <c r="E212" s="38">
+        <v>4</v>
+      </c>
+      <c r="F212" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H212" s="37">
+        <v>3</v>
+      </c>
+      <c r="I212" s="38">
+        <v>5</v>
+      </c>
+      <c r="J212" s="38">
+        <v>6</v>
+      </c>
+      <c r="K212" s="38">
+        <v>4</v>
+      </c>
+      <c r="L212" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N212" s="37">
+        <v>3</v>
+      </c>
+      <c r="O212" s="38">
+        <v>5</v>
+      </c>
+      <c r="P212" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q212" s="38">
+        <v>4</v>
+      </c>
+      <c r="R212" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B236" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C236" s="40">
+        <v>0</v>
+      </c>
+      <c r="D236" s="40">
+        <v>1</v>
+      </c>
+      <c r="E236" s="40">
+        <v>2</v>
+      </c>
+      <c r="F236" s="40">
+        <v>3</v>
+      </c>
+      <c r="G236" s="40">
+        <v>4</v>
+      </c>
+      <c r="H236" s="40">
+        <v>5</v>
+      </c>
+      <c r="I236" s="40">
+        <v>6</v>
+      </c>
+      <c r="J236" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K236" s="17"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="19">
+        <v>0</v>
+      </c>
+      <c r="C237" s="9">
+        <v>0</v>
+      </c>
+      <c r="D237" s="9">
+        <v>0</v>
+      </c>
+      <c r="E237" s="9">
+        <v>0</v>
+      </c>
+      <c r="F237" s="9">
+        <v>0</v>
+      </c>
+      <c r="G237" s="9">
+        <v>0</v>
+      </c>
+      <c r="H237" s="9">
+        <v>0</v>
+      </c>
+      <c r="I237" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B238" s="19">
+        <v>1</v>
+      </c>
+      <c r="C238" s="9">
+        <v>0</v>
+      </c>
+      <c r="D238" s="9">
+        <v>0</v>
+      </c>
+      <c r="E238" s="9">
+        <v>0</v>
+      </c>
+      <c r="F238" s="9">
+        <v>25</v>
+      </c>
+      <c r="G238" s="9">
+        <v>25</v>
+      </c>
+      <c r="H238" s="9">
+        <v>25</v>
+      </c>
+      <c r="I238" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B239" s="19">
+        <v>2</v>
+      </c>
+      <c r="C239" s="9">
+        <v>0</v>
+      </c>
+      <c r="D239" s="9">
+        <v>0</v>
+      </c>
+      <c r="E239" s="9">
+        <v>20</v>
+      </c>
+      <c r="F239" s="9">
+        <v>25</v>
+      </c>
+      <c r="G239" s="9">
+        <v>25</v>
+      </c>
+      <c r="H239" s="9">
+        <v>45</v>
+      </c>
+      <c r="I239" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B240" s="19">
+        <v>3</v>
+      </c>
+      <c r="C240" s="9">
+        <v>0</v>
+      </c>
+      <c r="D240" s="9">
+        <v>15</v>
+      </c>
+      <c r="E240" s="9">
+        <v>20</v>
+      </c>
+      <c r="F240" s="9">
+        <v>35</v>
+      </c>
+      <c r="G240" s="9">
+        <v>40</v>
+      </c>
+      <c r="H240" s="9">
+        <v>45</v>
+      </c>
+      <c r="I240" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="19">
+        <v>4</v>
+      </c>
+      <c r="C241" s="9">
+        <v>0</v>
+      </c>
+      <c r="D241" s="9">
+        <v>15</v>
+      </c>
+      <c r="E241" s="9">
+        <v>20</v>
+      </c>
+      <c r="F241" s="9">
+        <v>35</v>
+      </c>
+      <c r="G241" s="9">
+        <v>40</v>
+      </c>
+      <c r="H241" s="9">
+        <v>55</v>
+      </c>
+      <c r="I241" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="19">
+        <v>5</v>
+      </c>
+      <c r="C242" s="9">
+        <v>0</v>
+      </c>
+      <c r="D242" s="9">
+        <v>15</v>
+      </c>
+      <c r="E242" s="9">
+        <v>20</v>
+      </c>
+      <c r="F242" s="9">
+        <v>35</v>
+      </c>
+      <c r="G242" s="9">
+        <v>40</v>
+      </c>
+      <c r="H242" s="9">
+        <v>55</v>
+      </c>
+      <c r="I242" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
     <mergeCell ref="K98:L98"/>
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="K100:L100"/>
@@ -2929,6 +5483,16 @@
     <mergeCell ref="I99:J99"/>
     <mergeCell ref="I100:J100"/>
     <mergeCell ref="I101:J101"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="G99:H99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
